--- a/data/trans_dic/P1403-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1403-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1697854823190259</v>
+        <v>0.1707882757735992</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1369924932729225</v>
+        <v>0.1352178462876853</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1214844568499939</v>
+        <v>0.1225194941423815</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1398431327113007</v>
+        <v>0.1400079074337781</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2154563994941431</v>
+        <v>0.2156263231396327</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1978961106607605</v>
+        <v>0.1998565809020836</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1750299267197323</v>
+        <v>0.1775242429359606</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2484139099005115</v>
+        <v>0.2534766193567977</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2046427370087676</v>
+        <v>0.2057945499125842</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1759061155378511</v>
+        <v>0.1748015250002924</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1553128774608647</v>
+        <v>0.1556698143430234</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2104734581994988</v>
+        <v>0.2114506760439369</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2363010506173139</v>
+        <v>0.2359491017433096</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1864000843347385</v>
+        <v>0.1812849929957968</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1651186191843071</v>
+        <v>0.1633102202622583</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.205051842456739</v>
+        <v>0.2053121049997563</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2702702583264589</v>
+        <v>0.2701211734470541</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2493745329669102</v>
+        <v>0.248652998348524</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2243542346760611</v>
+        <v>0.2238894134152395</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3093978755827645</v>
+        <v>0.308580163290965</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2486311175537717</v>
+        <v>0.2494161695150829</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.210176282964348</v>
+        <v>0.2109058289205565</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1873393644831623</v>
+        <v>0.1877214180417321</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2526952936640538</v>
+        <v>0.2548849934817048</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1049027714974207</v>
+        <v>0.1048759412872809</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.152469734945059</v>
+        <v>0.1523567865143667</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1211224619715642</v>
+        <v>0.1219399261749387</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1604542796334806</v>
+        <v>0.1621028693438079</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1370461583308023</v>
+        <v>0.1397397223811492</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1871694084848374</v>
+        <v>0.1873105843586765</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1445249453111273</v>
+        <v>0.1476376869167878</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2014479565921342</v>
+        <v>0.199631406702803</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1275809599223141</v>
+        <v>0.1273678296111865</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1757763912478598</v>
+        <v>0.1772975341484243</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1403534082779493</v>
+        <v>0.1389145935748982</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1877577933530186</v>
+        <v>0.18908385533608</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1436400888680401</v>
+        <v>0.1438531884834978</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2027181194047982</v>
+        <v>0.2033848684477268</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1668711180046498</v>
+        <v>0.167377675889287</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2068551620778473</v>
+        <v>0.2085000404393377</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1824363752820939</v>
+        <v>0.1838099611671984</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2393262161563735</v>
+        <v>0.2374467721591747</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1944349023654856</v>
+        <v>0.1960021471563571</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2404989554787924</v>
+        <v>0.2388499789245275</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1560611533613681</v>
+        <v>0.1574911812614866</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2120123901603221</v>
+        <v>0.2139408659578284</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1749419587148006</v>
+        <v>0.1734155130103055</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2186318448091966</v>
+        <v>0.219969943781401</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.1713740884461233</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1936517234782411</v>
+        <v>0.193651723478241</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0992962991559366</v>
+        <v>0.0996373873558099</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1529886085143513</v>
+        <v>0.1540696857059047</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1415757115059017</v>
+        <v>0.1415190212467419</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1794583893568618</v>
+        <v>0.1807661436200881</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1114648545868039</v>
+        <v>0.1100888348673136</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1859371500989393</v>
+        <v>0.1849306900520043</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1511721914046367</v>
+        <v>0.1513265439824452</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1687114151351405</v>
+        <v>0.1673217573731096</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.110296376103867</v>
+        <v>0.1103348791620806</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1760276357713061</v>
+        <v>0.1773852674643433</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1524362679873434</v>
+        <v>0.1520660496771868</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1789597621027874</v>
+        <v>0.1764877347892277</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1369663794319477</v>
+        <v>0.1384029871071272</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2051006538784307</v>
+        <v>0.2074419909945699</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.191846962664132</v>
+        <v>0.192246233215535</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2256782512842078</v>
+        <v>0.2288717741284348</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1532815633332208</v>
+        <v>0.1555208066693791</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2399461721178249</v>
+        <v>0.2402174248969514</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2084407824746997</v>
+        <v>0.2082269293042761</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.206888997077772</v>
+        <v>0.204701267802188</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1382431390102966</v>
+        <v>0.1394120028664095</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2162677472973112</v>
+        <v>0.2180017330539344</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1908250468512385</v>
+        <v>0.1914269675364559</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2088671070146756</v>
+        <v>0.2068650934947515</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06203928113415032</v>
+        <v>0.05870237023756413</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1223610647697368</v>
+        <v>0.1204596760267401</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1325955530350287</v>
+        <v>0.1338093032174963</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1771031567663124</v>
+        <v>0.1743749967350195</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07535808960268499</v>
+        <v>0.08065683777564051</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1216491025254063</v>
+        <v>0.1243839770400941</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1042303259408692</v>
+        <v>0.104887384502827</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.158174681569755</v>
+        <v>0.1578154405744706</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07723882192324744</v>
+        <v>0.07703531894255851</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1305382082566635</v>
+        <v>0.1302281574203893</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1265814322447067</v>
+        <v>0.1293760433688619</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1749562740288002</v>
+        <v>0.1744801324669536</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1126587708959571</v>
+        <v>0.111774972635804</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.189500512946662</v>
+        <v>0.1901430494335279</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.202096012449457</v>
+        <v>0.2032542917834889</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2237705679755625</v>
+        <v>0.2255688091133165</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1424460050401215</v>
+        <v>0.1521761214226297</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1956708190318925</v>
+        <v>0.1995563733609956</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1748660970772445</v>
+        <v>0.1725359276647891</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1985322432716223</v>
+        <v>0.1971149922553408</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.11790293720157</v>
+        <v>0.1182932135182508</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1815473206338931</v>
+        <v>0.1804494345677525</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1743597531122903</v>
+        <v>0.1779721887273996</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2062901093145587</v>
+        <v>0.204978923242039</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1186866511625663</v>
+        <v>0.1182861643713262</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1543886282694493</v>
+        <v>0.154981534699502</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1391938931240908</v>
+        <v>0.1375737385427001</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1799978683485057</v>
+        <v>0.1797061351801686</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1560599637943764</v>
+        <v>0.1559473992623751</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1950408315804057</v>
+        <v>0.1944734167693517</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1628704999868299</v>
+        <v>0.1640060377233543</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1991631573236464</v>
+        <v>0.1989012829638052</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1410986949220786</v>
+        <v>0.1411765954902893</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.179573775374317</v>
+        <v>0.1787380734795926</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1549900554725853</v>
+        <v>0.155342576925495</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1928502920909269</v>
+        <v>0.1933854962761531</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1415146020834765</v>
+        <v>0.1426942006522701</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.180092936244481</v>
+        <v>0.182394529573548</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1630827725564968</v>
+        <v>0.1626175480061832</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2038784668796821</v>
+        <v>0.2057051116789682</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1829753718528511</v>
+        <v>0.1820304957196031</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2224430964136177</v>
+        <v>0.2224176256909082</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1912616421195783</v>
+        <v>0.1899104149859215</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2198122238809524</v>
+        <v>0.2190486134730784</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.157815481963661</v>
+        <v>0.159417697899042</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1988212844076339</v>
+        <v>0.198064462800364</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1737534880102392</v>
+        <v>0.1747325989218252</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2105340277499468</v>
+        <v>0.2097792046133567</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>99179</v>
+        <v>99764</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>143011</v>
+        <v>141159</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>137034</v>
+        <v>138202</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>69546</v>
+        <v>69627</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>198723</v>
+        <v>198879</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>221377</v>
+        <v>223570</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>220461</v>
+        <v>223603</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>154738</v>
+        <v>157892</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>308289</v>
+        <v>310024</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>380412</v>
+        <v>378024</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>370819</v>
+        <v>371671</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>235776</v>
+        <v>236871</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>138033</v>
+        <v>137828</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>194590</v>
+        <v>189250</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>186253</v>
+        <v>184213</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>101975</v>
+        <v>102104</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>249279</v>
+        <v>249142</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>278964</v>
+        <v>278156</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>282588</v>
+        <v>282002</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>192725</v>
+        <v>192216</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>374556</v>
+        <v>375739</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>454525</v>
+        <v>456102</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>447284</v>
+        <v>448196</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>283074</v>
+        <v>285527</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>113074</v>
+        <v>113045</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>148974</v>
+        <v>148864</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>110079</v>
+        <v>110822</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>153897</v>
+        <v>155478</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>144932</v>
+        <v>147780</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>204243</v>
+        <v>204397</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>145461</v>
+        <v>148594</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>224411</v>
+        <v>222387</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>272440</v>
+        <v>271985</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>363557</v>
+        <v>366703</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>268819</v>
+        <v>266063</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>389245</v>
+        <v>391994</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>154829</v>
+        <v>155058</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>198070</v>
+        <v>198722</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>151657</v>
+        <v>152117</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>198402</v>
+        <v>199979</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>192933</v>
+        <v>194386</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>261157</v>
+        <v>259106</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>195694</v>
+        <v>197271</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>267913</v>
+        <v>266076</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>333258</v>
+        <v>336312</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>438503</v>
+        <v>442492</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>335066</v>
+        <v>332143</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>453250</v>
+        <v>456025</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>111370</v>
+        <v>111753</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>135413</v>
+        <v>136369</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>116624</v>
+        <v>116578</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>187624</v>
+        <v>188991</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>110789</v>
+        <v>109422</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>162843</v>
+        <v>161962</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>116563</v>
+        <v>116682</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>176537</v>
+        <v>175083</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>233336</v>
+        <v>233417</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>309969</v>
+        <v>312360</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>243108</v>
+        <v>242518</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>374363</v>
+        <v>369192</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>153621</v>
+        <v>155232</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>181538</v>
+        <v>183610</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>158036</v>
+        <v>158365</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>235947</v>
+        <v>239285</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>152353</v>
+        <v>154578</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>210144</v>
+        <v>210381</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>160720</v>
+        <v>160555</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>216486</v>
+        <v>214196</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>292458</v>
+        <v>294931</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>380828</v>
+        <v>383882</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>304331</v>
+        <v>305291</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>436926</v>
+        <v>432738</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>27744</v>
+        <v>26252</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>61550</v>
+        <v>60594</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>67186</v>
+        <v>67801</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>172598</v>
+        <v>169939</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>25709</v>
+        <v>27517</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>55075</v>
+        <v>56313</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>51041</v>
+        <v>51363</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>143599</v>
+        <v>143273</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>60892</v>
+        <v>60731</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>124763</v>
+        <v>124467</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>126125</v>
+        <v>128910</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>329340</v>
+        <v>328444</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>50381</v>
+        <v>49986</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>95323</v>
+        <v>95646</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>102402</v>
+        <v>102989</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>218079</v>
+        <v>219831</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>48597</v>
+        <v>51916</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>88587</v>
+        <v>90346</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>85632</v>
+        <v>84490</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>180237</v>
+        <v>178951</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>92950</v>
+        <v>93257</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>173515</v>
+        <v>172466</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>173732</v>
+        <v>177331</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>388323</v>
+        <v>385855</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>383456</v>
+        <v>382162</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>526333</v>
+        <v>528355</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>468705</v>
+        <v>463250</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>625764</v>
+        <v>624749</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>517334</v>
+        <v>516961</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>690133</v>
+        <v>688125</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>574410</v>
+        <v>578415</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>735137</v>
+        <v>734170</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>923604</v>
+        <v>924113</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1247597</v>
+        <v>1241791</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1068513</v>
+        <v>1070943</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1382281</v>
+        <v>1386117</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>457209</v>
+        <v>461021</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>613963</v>
+        <v>621809</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>549146</v>
+        <v>547579</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>708785</v>
+        <v>715135</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>606558</v>
+        <v>603425</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>787093</v>
+        <v>787003</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>674540</v>
+        <v>669775</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>811355</v>
+        <v>808537</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1033028</v>
+        <v>1043516</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1381320</v>
+        <v>1376062</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1197870</v>
+        <v>1204620</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1509031</v>
+        <v>1503621</v>
       </c>
     </row>
     <row r="24">
